--- a/words/Words (1).xlsx
+++ b/words/Words (1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a819f43321bd0c8d/CloudProjects/ViviVerbal/words/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\15074\Documents\ViviVerbal\words\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="14_{A554C45A-A6E4-4B19-9A4E-E5AC585615B3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{4FF66F78-DC67-364C-8B12-DB14D416FF17}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09D5FB69-FB30-4E5D-A3C5-46F2BB17ECCA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7185" windowHeight="9300" xr2:uid="{3703F7ED-FE05-4EF7-A66F-68D97FFE97B8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{3703F7ED-FE05-4EF7-A66F-68D97FFE97B8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1217,17 +1217,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B86D071-750F-4D60-AC05-9263B77B3B31}">
   <dimension ref="A1:C102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="145" zoomScaleNormal="145" workbookViewId="0" xr3:uid="{B2FA4DBF-34FB-58F3-87B8-E3BD08E9DD84}">
-      <selection activeCell="A105" sqref="A105"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="175" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.94921875" customWidth="1"/>
-    <col min="2" max="2" width="19.28125" customWidth="1"/>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1235,7 +1235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1243,7 +1243,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1251,7 +1251,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1259,7 +1259,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1267,7 +1267,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1275,7 +1275,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -1283,7 +1283,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -1291,7 +1291,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -1299,7 +1299,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -1307,7 +1307,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
@@ -1315,7 +1315,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -1323,7 +1323,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -1331,7 +1331,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -1339,7 +1339,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -1347,7 +1347,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -1355,7 +1355,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -1363,7 +1363,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>31</v>
       </c>
@@ -1371,7 +1371,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>33</v>
       </c>
@@ -1379,7 +1379,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>35</v>
       </c>
@@ -1387,7 +1387,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>37</v>
       </c>
@@ -1395,7 +1395,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>39</v>
       </c>
@@ -1403,7 +1403,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>41</v>
       </c>
@@ -1411,7 +1411,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>43</v>
       </c>
@@ -1419,7 +1419,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>45</v>
       </c>
@@ -1427,7 +1427,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>47</v>
       </c>
@@ -1435,7 +1435,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>48</v>
       </c>
@@ -1443,7 +1443,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>49</v>
       </c>
@@ -1451,7 +1451,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>50</v>
       </c>
@@ -1459,7 +1459,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>51</v>
       </c>
@@ -1467,7 +1467,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>57</v>
       </c>
@@ -1475,7 +1475,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>52</v>
       </c>
@@ -1483,7 +1483,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>53</v>
       </c>
@@ -1491,7 +1491,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>54</v>
       </c>
@@ -1499,7 +1499,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>55</v>
       </c>
@@ -1507,7 +1507,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>56</v>
       </c>
@@ -1515,7 +1515,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>71</v>
       </c>
@@ -1523,7 +1523,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>73</v>
       </c>
@@ -1531,7 +1531,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>75</v>
       </c>
@@ -1539,7 +1539,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>77</v>
       </c>
@@ -1547,7 +1547,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>79</v>
       </c>
@@ -1555,7 +1555,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>81</v>
       </c>
@@ -1563,7 +1563,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>83</v>
       </c>
@@ -1571,7 +1571,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>85</v>
       </c>
@@ -1579,7 +1579,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>87</v>
       </c>
@@ -1587,7 +1587,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>89</v>
       </c>
@@ -1595,7 +1595,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>91</v>
       </c>
@@ -1603,7 +1603,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>93</v>
       </c>
@@ -1611,7 +1611,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>94</v>
       </c>
@@ -1619,7 +1619,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>95</v>
       </c>
@@ -1627,7 +1627,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>99</v>
       </c>
@@ -1635,7 +1635,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>101</v>
       </c>
@@ -1643,7 +1643,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>105</v>
       </c>
@@ -1651,7 +1651,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>103</v>
       </c>
@@ -1659,7 +1659,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>107</v>
       </c>
@@ -1667,7 +1667,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>109</v>
       </c>
@@ -1675,7 +1675,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>110</v>
       </c>
@@ -1683,7 +1683,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>112</v>
       </c>
@@ -1691,7 +1691,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>114</v>
       </c>
@@ -1699,7 +1699,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>116</v>
       </c>
@@ -1707,7 +1707,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>119</v>
       </c>
@@ -1715,7 +1715,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>121</v>
       </c>
@@ -1723,7 +1723,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>122</v>
       </c>
@@ -1731,7 +1731,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>124</v>
       </c>
@@ -1739,7 +1739,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>126</v>
       </c>
@@ -1747,7 +1747,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>128</v>
       </c>
@@ -1755,7 +1755,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>130</v>
       </c>
@@ -1763,7 +1763,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>132</v>
       </c>
@@ -1771,7 +1771,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>134</v>
       </c>
@@ -1779,7 +1779,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>136</v>
       </c>
@@ -1787,7 +1787,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>138</v>
       </c>
@@ -1795,7 +1795,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>140</v>
       </c>
@@ -1804,7 +1804,7 @@
       </c>
       <c r="C72" s="4"/>
     </row>
-    <row r="73" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>142</v>
       </c>
@@ -1812,7 +1812,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>144</v>
       </c>
@@ -1820,7 +1820,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>147</v>
       </c>
@@ -1828,7 +1828,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>148</v>
       </c>
@@ -1836,7 +1836,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>150</v>
       </c>
@@ -1844,7 +1844,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>152</v>
       </c>
@@ -1852,7 +1852,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>154</v>
       </c>
@@ -1860,7 +1860,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>156</v>
       </c>
@@ -1868,7 +1868,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>158</v>
       </c>
@@ -1876,7 +1876,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>160</v>
       </c>
@@ -1884,7 +1884,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>162</v>
       </c>
@@ -1892,7 +1892,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>164</v>
       </c>
@@ -1900,7 +1900,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>166</v>
       </c>
@@ -1908,7 +1908,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>167</v>
       </c>
@@ -1916,7 +1916,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>168</v>
       </c>
@@ -1924,7 +1924,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>171</v>
       </c>
@@ -1932,7 +1932,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>172</v>
       </c>
@@ -1940,7 +1940,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>174</v>
       </c>
@@ -1948,7 +1948,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>176</v>
       </c>
@@ -1956,7 +1956,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>178</v>
       </c>
@@ -1964,7 +1964,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>181</v>
       </c>
@@ -1972,7 +1972,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>182</v>
       </c>
@@ -1980,7 +1980,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>184</v>
       </c>
@@ -1988,7 +1988,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>186</v>
       </c>
@@ -1996,7 +1996,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>188</v>
       </c>
@@ -2004,7 +2004,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>190</v>
       </c>
@@ -2012,7 +2012,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>192</v>
       </c>
@@ -2020,7 +2020,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>194</v>
       </c>
@@ -2028,7 +2028,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="101" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>196</v>
       </c>
@@ -2036,7 +2036,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>198</v>
       </c>
@@ -2047,5 +2047,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="100" verticalDpi="100" r:id="rId1"/>
 </worksheet>
 </file>